--- a/artfynd/Tyfallsjön artfynd.xlsx
+++ b/artfynd/Tyfallsjön artfynd.xlsx
@@ -1569,10 +1569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>122745959</v>
+        <v>122746094</v>
       </c>
       <c r="B11" t="n">
-        <v>92527</v>
+        <v>91541</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1580,34 +1580,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Åskojan N, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>670125</v>
+        <v>669736</v>
       </c>
       <c r="R11" t="n">
-        <v>7090225</v>
+        <v>7090744</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122745975</v>
+        <v>122745959</v>
       </c>
       <c r="B12" t="n">
         <v>92527</v>
@@ -1701,14 +1701,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>669892</v>
+        <v>670125</v>
       </c>
       <c r="R12" t="n">
-        <v>7090677</v>
+        <v>7090225</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -1771,10 +1771,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>122746094</v>
+        <v>122745975</v>
       </c>
       <c r="B13" t="n">
-        <v>91541</v>
+        <v>92527</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1782,34 +1782,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Åskojan N, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>669736</v>
+        <v>669892</v>
       </c>
       <c r="R13" t="n">
-        <v>7090744</v>
+        <v>7090677</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -1969,10 +1969,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>122743253</v>
+        <v>122746003</v>
       </c>
       <c r="B15" t="n">
-        <v>91265</v>
+        <v>92563</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1980,34 +1980,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5442</v>
+        <v>5449</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Gräningen SÖ, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>669770</v>
+        <v>669867</v>
       </c>
       <c r="R15" t="n">
-        <v>7090696</v>
+        <v>7090564</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2034,12 +2034,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2070,10 +2070,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>122746003</v>
+        <v>122743253</v>
       </c>
       <c r="B16" t="n">
-        <v>92563</v>
+        <v>91265</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2081,34 +2081,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5449</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Gräningen SÖ, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>669867</v>
+        <v>669770</v>
       </c>
       <c r="R16" t="n">
-        <v>7090564</v>
+        <v>7090696</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Jessica  Åström, Helene Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2171,45 +2171,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>122745994</v>
+        <v>67474656</v>
       </c>
       <c r="B17" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>669879</v>
+        <v>669722</v>
       </c>
       <c r="R17" t="n">
-        <v>7090603</v>
+        <v>7090036</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2256,19 +2256,15 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2373,32 +2369,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>122745999</v>
+        <v>122745994</v>
       </c>
       <c r="B19" t="n">
-        <v>92727</v>
+        <v>92535</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2079</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2408,10 +2404,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>669873</v>
+        <v>669879</v>
       </c>
       <c r="R19" t="n">
-        <v>7090572</v>
+        <v>7090603</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2474,7 +2470,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>122745971</v>
+        <v>122745999</v>
       </c>
       <c r="B20" t="n">
         <v>92727</v>
@@ -2505,14 +2501,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>669936</v>
+        <v>669873</v>
       </c>
       <c r="R20" t="n">
-        <v>7090682</v>
+        <v>7090572</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2575,10 +2571,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>122745772</v>
+        <v>122745971</v>
       </c>
       <c r="B21" t="n">
-        <v>90283</v>
+        <v>92727</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2586,21 +2582,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2610,10 +2606,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>669892</v>
+        <v>669936</v>
       </c>
       <c r="R21" t="n">
-        <v>7090638</v>
+        <v>7090682</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2640,12 +2636,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2665,7 +2661,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -2676,10 +2672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67474656</v>
+        <v>122745772</v>
       </c>
       <c r="B22" t="n">
-        <v>78980</v>
+        <v>90283</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,34 +2683,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>669722</v>
+        <v>669892</v>
       </c>
       <c r="R22" t="n">
-        <v>7090036</v>
+        <v>7090638</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2741,12 +2737,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2761,22 +2757,26 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Helene Andersson, Elin Kollberg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67474646</v>
+        <v>67474868</v>
       </c>
       <c r="B23" t="n">
-        <v>78647</v>
+        <v>92551</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2784,21 +2784,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>668905</v>
+        <v>669921</v>
       </c>
       <c r="R23" t="n">
-        <v>7090825</v>
+        <v>7090665</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67474868</v>
+        <v>67474646</v>
       </c>
       <c r="B24" t="n">
-        <v>92551</v>
+        <v>78647</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2881,21 +2881,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>669921</v>
+        <v>668905</v>
       </c>
       <c r="R24" t="n">
-        <v>7090665</v>
+        <v>7090825</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3068,45 +3068,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>122745957</v>
+        <v>122745980</v>
       </c>
       <c r="B26" t="n">
-        <v>91210</v>
+        <v>90283</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Långtjärnsberget SV, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>669995</v>
+        <v>669891</v>
       </c>
       <c r="R26" t="n">
-        <v>7090598</v>
+        <v>7090661</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3169,45 +3169,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>122745980</v>
+        <v>122745957</v>
       </c>
       <c r="B27" t="n">
-        <v>90283</v>
+        <v>91210</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1962</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långtjärnsberget SV, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>669891</v>
+        <v>669995</v>
       </c>
       <c r="R27" t="n">
-        <v>7090661</v>
+        <v>7090598</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3371,10 +3371,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67474644</v>
+        <v>67474657</v>
       </c>
       <c r="B29" t="n">
-        <v>92529</v>
+        <v>90283</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3382,21 +3382,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>668905</v>
+        <v>669717</v>
       </c>
       <c r="R29" t="n">
-        <v>7090679</v>
+        <v>7090048</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67474866</v>
+        <v>67474644</v>
       </c>
       <c r="B30" t="n">
         <v>92529</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>669881</v>
+        <v>668905</v>
       </c>
       <c r="R30" t="n">
-        <v>7090646</v>
+        <v>7090679</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67474657</v>
+        <v>67474866</v>
       </c>
       <c r="B31" t="n">
-        <v>90283</v>
+        <v>92529</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3576,21 +3576,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>669717</v>
+        <v>669881</v>
       </c>
       <c r="R31" t="n">
-        <v>7090048</v>
+        <v>7090646</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3662,32 +3662,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>122745956</v>
+        <v>122745954</v>
       </c>
       <c r="B32" t="n">
-        <v>78647</v>
+        <v>98361</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>669995</v>
+        <v>670067</v>
       </c>
       <c r="R32" t="n">
-        <v>7090580</v>
+        <v>7090528</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -3763,10 +3763,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>122745931</v>
+        <v>122743247</v>
       </c>
       <c r="B33" t="n">
-        <v>79598</v>
+        <v>91245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3774,34 +3774,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>670135</v>
+        <v>669746</v>
       </c>
       <c r="R33" t="n">
-        <v>7090325</v>
+        <v>7090734</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3828,12 +3828,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Jessica  Åström, Helene Andersson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -3965,10 +3965,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>122743247</v>
+        <v>122745956</v>
       </c>
       <c r="B35" t="n">
-        <v>91245</v>
+        <v>78647</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3976,34 +3976,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>669746</v>
+        <v>669995</v>
       </c>
       <c r="R35" t="n">
-        <v>7090734</v>
+        <v>7090580</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4030,12 +4030,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4369,32 +4369,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>122745954</v>
+        <v>122745931</v>
       </c>
       <c r="B39" t="n">
-        <v>98361</v>
+        <v>79598</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4404,10 +4404,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>670067</v>
+        <v>670135</v>
       </c>
       <c r="R39" t="n">
-        <v>7090528</v>
+        <v>7090325</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4664,10 +4664,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>122746002</v>
+        <v>122745935</v>
       </c>
       <c r="B42" t="n">
-        <v>92527</v>
+        <v>92529</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4675,34 +4675,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>669880</v>
+        <v>670140</v>
       </c>
       <c r="R42" t="n">
-        <v>7090558</v>
+        <v>7090259</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>122745922</v>
+        <v>122746002</v>
       </c>
       <c r="B43" t="n">
         <v>92527</v>
@@ -4796,14 +4796,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>670033</v>
+        <v>669880</v>
       </c>
       <c r="R43" t="n">
-        <v>7090453</v>
+        <v>7090558</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>122745935</v>
+        <v>122745922</v>
       </c>
       <c r="B44" t="n">
-        <v>92529</v>
+        <v>92527</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4877,34 +4877,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>670140</v>
+        <v>670033</v>
       </c>
       <c r="R44" t="n">
-        <v>7090259</v>
+        <v>7090453</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr">
@@ -4967,10 +4967,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67474650</v>
+        <v>122746000</v>
       </c>
       <c r="B45" t="n">
-        <v>78980</v>
+        <v>92152</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4978,34 +4978,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>4745</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>668972</v>
+        <v>669882</v>
       </c>
       <c r="R45" t="n">
-        <v>7090806</v>
+        <v>7090561</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5032,12 +5032,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5052,22 +5052,26 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+          <t>Helene Andersson, Jessica  Åström</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67474877</v>
+        <v>122745961</v>
       </c>
       <c r="B46" t="n">
-        <v>92529</v>
+        <v>92152</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5075,34 +5079,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>669299</v>
+        <v>669966</v>
       </c>
       <c r="R46" t="n">
-        <v>7090047</v>
+        <v>7090624</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5129,12 +5133,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5149,22 +5153,26 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr"/>
+          <t>Helene Andersson, Jessica  Åström</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>122745961</v>
+        <v>122745968</v>
       </c>
       <c r="B47" t="n">
-        <v>92152</v>
+        <v>5492</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5172,34 +5180,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4745</v>
+        <v>101410</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>669966</v>
+        <v>669955</v>
       </c>
       <c r="R47" t="n">
-        <v>7090624</v>
+        <v>7090535</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5251,7 +5259,7 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -5262,10 +5270,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>122746000</v>
+        <v>67474650</v>
       </c>
       <c r="B48" t="n">
-        <v>92152</v>
+        <v>78980</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5273,34 +5281,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4745</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>669882</v>
+        <v>668972</v>
       </c>
       <c r="R48" t="n">
-        <v>7090561</v>
+        <v>7090806</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5327,12 +5335,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5347,26 +5355,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>122745968</v>
+        <v>67474877</v>
       </c>
       <c r="B49" t="n">
-        <v>5492</v>
+        <v>92529</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5374,34 +5378,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>101410</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>669955</v>
+        <v>669299</v>
       </c>
       <c r="R49" t="n">
-        <v>7090535</v>
+        <v>7090047</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5428,12 +5432,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5448,48 +5452,44 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67474645</v>
+        <v>67474875</v>
       </c>
       <c r="B50" t="n">
-        <v>92535</v>
+        <v>78739</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>668922</v>
+        <v>669648</v>
       </c>
       <c r="R50" t="n">
-        <v>7090748</v>
+        <v>7090488</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5561,32 +5561,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67474875</v>
+        <v>67474645</v>
       </c>
       <c r="B51" t="n">
-        <v>78739</v>
+        <v>92535</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>669648</v>
+        <v>668922</v>
       </c>
       <c r="R51" t="n">
-        <v>7090488</v>
+        <v>7090748</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Jessica  Åström, Helene Andersson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr">
@@ -6155,32 +6155,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67474867</v>
+        <v>67474865</v>
       </c>
       <c r="B57" t="n">
-        <v>92527</v>
+        <v>90001</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>669891</v>
+        <v>669866</v>
       </c>
       <c r="R57" t="n">
-        <v>7090656</v>
+        <v>7090604</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6252,32 +6252,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67474865</v>
+        <v>67474867</v>
       </c>
       <c r="B58" t="n">
-        <v>90001</v>
+        <v>92527</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6287,10 +6287,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>669866</v>
+        <v>669891</v>
       </c>
       <c r="R58" t="n">
-        <v>7090604</v>
+        <v>7090656</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6652,10 +6652,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67474864</v>
+        <v>122745918</v>
       </c>
       <c r="B62" t="n">
-        <v>92529</v>
+        <v>92560</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6663,34 +6663,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon fuligineoalbus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(J.C.Schmidt) Baird</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>669866</v>
+        <v>669897</v>
       </c>
       <c r="R62" t="n">
-        <v>7090604</v>
+        <v>7090549</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6717,12 +6717,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6737,22 +6737,26 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr"/>
+          <t>Helene Andersson, Elin Kollberg</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67474654</v>
+        <v>67474864</v>
       </c>
       <c r="B63" t="n">
-        <v>91265</v>
+        <v>92529</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6760,21 +6764,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5442</v>
+        <v>4362</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6784,10 +6788,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>669608</v>
+        <v>669866</v>
       </c>
       <c r="R63" t="n">
-        <v>7090080</v>
+        <v>7090604</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6846,45 +6850,45 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>122745960</v>
+        <v>67474654</v>
       </c>
       <c r="B64" t="n">
-        <v>92535</v>
+        <v>91265</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>670120</v>
+        <v>669608</v>
       </c>
       <c r="R64" t="n">
-        <v>7090287</v>
+        <v>7090080</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6911,12 +6915,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6931,26 +6935,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122745918</v>
+        <v>122745919</v>
       </c>
       <c r="B65" t="n">
-        <v>92560</v>
+        <v>92551</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6958,21 +6958,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellodon fuligineoalbus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(J.C.Schmidt) Baird</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>669897</v>
+        <v>669947</v>
       </c>
       <c r="R65" t="n">
-        <v>7090549</v>
+        <v>7090550</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7048,45 +7048,45 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>122745976</v>
+        <v>122745960</v>
       </c>
       <c r="B66" t="n">
-        <v>92529</v>
+        <v>92535</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Abborrtj. Ö, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>669891</v>
+        <v>670120</v>
       </c>
       <c r="R66" t="n">
-        <v>7090673</v>
+        <v>7090287</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
@@ -7149,10 +7149,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>122745919</v>
+        <v>122745976</v>
       </c>
       <c r="B67" t="n">
-        <v>92551</v>
+        <v>92529</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7160,34 +7160,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Abborrtj. Ö, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>669947</v>
+        <v>669891</v>
       </c>
       <c r="R67" t="n">
-        <v>7090550</v>
+        <v>7090673</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7250,45 +7250,45 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>122743241</v>
+        <v>122745941</v>
       </c>
       <c r="B68" t="n">
-        <v>75075</v>
+        <v>92519</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>6055</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>669788</v>
+        <v>670135</v>
       </c>
       <c r="R68" t="n">
-        <v>7090723</v>
+        <v>7090325</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7315,12 +7315,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr">
@@ -7351,45 +7351,45 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>122745941</v>
+        <v>122745988</v>
       </c>
       <c r="B69" t="n">
-        <v>92519</v>
+        <v>78647</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6055</v>
+        <v>353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>670135</v>
+        <v>669915</v>
       </c>
       <c r="R69" t="n">
-        <v>7090325</v>
+        <v>7090620</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr">
@@ -7452,10 +7452,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>122745988</v>
+        <v>122743241</v>
       </c>
       <c r="B70" t="n">
-        <v>78647</v>
+        <v>75075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7463,34 +7463,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>669915</v>
+        <v>669788</v>
       </c>
       <c r="R70" t="n">
-        <v>7090620</v>
+        <v>7090723</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Jessica  Åström, Helene Andersson</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr">
@@ -7553,10 +7553,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>67474647</v>
+        <v>67474869</v>
       </c>
       <c r="B71" t="n">
-        <v>78647</v>
+        <v>92551</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7564,21 +7564,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>2059</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7588,10 +7588,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>668937</v>
+        <v>669907</v>
       </c>
       <c r="R71" t="n">
-        <v>7090808</v>
+        <v>7090588</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7650,10 +7650,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>67474869</v>
+        <v>67474647</v>
       </c>
       <c r="B72" t="n">
-        <v>92551</v>
+        <v>78647</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7661,21 +7661,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>669907</v>
+        <v>668937</v>
       </c>
       <c r="R72" t="n">
-        <v>7090588</v>
+        <v>7090808</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122745940</v>
+        <v>122745939</v>
       </c>
       <c r="B74" t="n">
-        <v>92727</v>
+        <v>92527</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7855,34 +7855,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2079</v>
+        <v>4361</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Djuptjärnen NV, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>670126</v>
+        <v>670132</v>
       </c>
       <c r="R74" t="n">
-        <v>7090300</v>
+        <v>7090279</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>122745769</v>
+        <v>122745940</v>
       </c>
       <c r="B75" t="n">
-        <v>92551</v>
+        <v>92727</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7956,21 +7956,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -7980,10 +7980,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>669933</v>
+        <v>670126</v>
       </c>
       <c r="R75" t="n">
-        <v>7090655</v>
+        <v>7090300</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8010,12 +8010,12 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr">
@@ -8046,10 +8046,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>122745939</v>
+        <v>122745769</v>
       </c>
       <c r="B76" t="n">
-        <v>92527</v>
+        <v>92551</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8057,34 +8057,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Djuptjärnen NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>670132</v>
+        <v>669933</v>
       </c>
       <c r="R76" t="n">
-        <v>7090279</v>
+        <v>7090655</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8111,12 +8111,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
@@ -8248,10 +8248,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>122745934</v>
+        <v>122746100</v>
       </c>
       <c r="B78" t="n">
-        <v>78738</v>
+        <v>91241</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8259,34 +8259,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>1108</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Åskojan SÖ, Ång</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>670107</v>
+        <v>669761</v>
       </c>
       <c r="R78" t="n">
-        <v>7090350</v>
+        <v>7090742</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8349,10 +8349,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>122746100</v>
+        <v>122745934</v>
       </c>
       <c r="B79" t="n">
-        <v>91241</v>
+        <v>78738</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8360,34 +8360,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1108</v>
+        <v>6446</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Åskojan SÖ, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>669761</v>
+        <v>670107</v>
       </c>
       <c r="R79" t="n">
-        <v>7090742</v>
+        <v>7090350</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>122745964</v>
+        <v>122743245</v>
       </c>
       <c r="B81" t="n">
-        <v>92539</v>
+        <v>91699</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8558,34 +8558,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4365</v>
+        <v>1209</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>669924</v>
+        <v>669764</v>
       </c>
       <c r="R81" t="n">
-        <v>7090647</v>
+        <v>7090736</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Jessica  Åström, Helene Andersson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr">
@@ -8648,45 +8648,45 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>122743245</v>
+        <v>122745963</v>
       </c>
       <c r="B82" t="n">
-        <v>91699</v>
+        <v>92527</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1209</v>
+        <v>4361</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>669764</v>
+        <v>669940</v>
       </c>
       <c r="R82" t="n">
-        <v>7090736</v>
+        <v>7090640</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8713,12 +8713,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -8749,32 +8749,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>122745963</v>
+        <v>122745964</v>
       </c>
       <c r="B83" t="n">
-        <v>92527</v>
+        <v>92539</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4361</v>
+        <v>4365</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8784,10 +8784,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>669940</v>
+        <v>669924</v>
       </c>
       <c r="R83" t="n">
-        <v>7090640</v>
+        <v>7090647</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9149,45 +9149,45 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>122745993</v>
+        <v>122745920</v>
       </c>
       <c r="B87" t="n">
-        <v>90001</v>
+        <v>105383</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6276</v>
+        <v>224098</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Kalktallört</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Monotropa hypophegea</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Wallr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>669877</v>
+        <v>669984</v>
       </c>
       <c r="R87" t="n">
-        <v>7090603</v>
+        <v>7090520</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9250,45 +9250,45 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>122745920</v>
+        <v>122745993</v>
       </c>
       <c r="B88" t="n">
-        <v>105383</v>
+        <v>90001</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>224098</v>
+        <v>6276</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kalktallört</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Monotropa hypophegea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Wallr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>669984</v>
+        <v>669877</v>
       </c>
       <c r="R88" t="n">
-        <v>7090520</v>
+        <v>7090603</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>73354519</v>
+        <v>67474655</v>
       </c>
       <c r="B89" t="n">
-        <v>79949</v>
+        <v>78738</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9362,21 +9362,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>388</v>
+        <v>6446</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9386,10 +9386,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>669972</v>
+        <v>669647</v>
       </c>
       <c r="R89" t="n">
-        <v>7089998</v>
+        <v>7090068</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9430,7 +9430,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -9449,10 +9448,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>67474655</v>
+        <v>67474653</v>
       </c>
       <c r="B90" t="n">
-        <v>78738</v>
+        <v>78980</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9460,21 +9459,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9484,10 +9483,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>669647</v>
+        <v>669504</v>
       </c>
       <c r="R90" t="n">
-        <v>7090068</v>
+        <v>7090118</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9546,10 +9545,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>67474653</v>
+        <v>73354519</v>
       </c>
       <c r="B91" t="n">
-        <v>78980</v>
+        <v>79949</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9557,21 +9556,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9581,10 +9580,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>669504</v>
+        <v>669972</v>
       </c>
       <c r="R91" t="n">
-        <v>7090118</v>
+        <v>7089998</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9625,6 +9624,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>

--- a/artfynd/Tyfallsjön artfynd.xlsx
+++ b/artfynd/Tyfallsjön artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67474648</v>
+        <v>67474872</v>
       </c>
       <c r="B2" t="n">
-        <v>78739</v>
+        <v>92527</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>668937</v>
+        <v>669710</v>
       </c>
       <c r="R2" t="n">
-        <v>7090808</v>
+        <v>7090503</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67474872</v>
+        <v>67474648</v>
       </c>
       <c r="B4" t="n">
-        <v>92527</v>
+        <v>78739</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>669710</v>
+        <v>668937</v>
       </c>
       <c r="R4" t="n">
-        <v>7090503</v>
+        <v>7090808</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>122745991</v>
+        <v>122745989</v>
       </c>
       <c r="B5" t="n">
         <v>92527</v>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>669879</v>
+        <v>669893</v>
       </c>
       <c r="R5" t="n">
-        <v>7090606</v>
+        <v>7090649</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>122745981</v>
+        <v>122745991</v>
       </c>
       <c r="B6" t="n">
         <v>92527</v>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>670035</v>
+        <v>669879</v>
       </c>
       <c r="R6" t="n">
-        <v>7090545</v>
+        <v>7090606</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>122745966</v>
+        <v>122745981</v>
       </c>
       <c r="B7" t="n">
         <v>92527</v>
@@ -1204,14 +1204,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storlandsberget N, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>670035</v>
       </c>
       <c r="R7" t="n">
-        <v>7090454</v>
+        <v>7090545</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>122745989</v>
+        <v>122745966</v>
       </c>
       <c r="B8" t="n">
         <v>92527</v>
@@ -1305,14 +1305,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Storlandsberget N, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>669893</v>
+        <v>670035</v>
       </c>
       <c r="R8" t="n">
-        <v>7090649</v>
+        <v>7090454</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67474863</v>
+        <v>67474874</v>
       </c>
       <c r="B9" t="n">
-        <v>92551</v>
+        <v>78738</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>670109</v>
+        <v>669648</v>
       </c>
       <c r="R9" t="n">
-        <v>7089941</v>
+        <v>7090488</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67474874</v>
+        <v>67474863</v>
       </c>
       <c r="B10" t="n">
-        <v>78738</v>
+        <v>92551</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1483,21 +1483,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>669648</v>
+        <v>670109</v>
       </c>
       <c r="R10" t="n">
-        <v>7090488</v>
+        <v>7089941</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122745959</v>
+        <v>122745975</v>
       </c>
       <c r="B12" t="n">
         <v>92527</v>
@@ -1701,14 +1701,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>670125</v>
+        <v>669892</v>
       </c>
       <c r="R12" t="n">
-        <v>7090225</v>
+        <v>7090677</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>122745975</v>
+        <v>122745959</v>
       </c>
       <c r="B13" t="n">
         <v>92527</v>
@@ -1802,14 +1802,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>669892</v>
+        <v>670125</v>
       </c>
       <c r="R13" t="n">
-        <v>7090677</v>
+        <v>7090225</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Jessica  Åström, Helene Andersson</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2369,45 +2369,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>122745994</v>
+        <v>122745772</v>
       </c>
       <c r="B19" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>669879</v>
+        <v>669892</v>
       </c>
       <c r="R19" t="n">
-        <v>7090603</v>
+        <v>7090638</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2470,7 +2470,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>122745999</v>
+        <v>122745971</v>
       </c>
       <c r="B20" t="n">
         <v>92727</v>
@@ -2501,14 +2501,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>669873</v>
+        <v>669936</v>
       </c>
       <c r="R20" t="n">
-        <v>7090572</v>
+        <v>7090682</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>122745971</v>
+        <v>122745999</v>
       </c>
       <c r="B21" t="n">
         <v>92727</v>
@@ -2602,14 +2602,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>669936</v>
+        <v>669873</v>
       </c>
       <c r="R21" t="n">
-        <v>7090682</v>
+        <v>7090572</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2672,45 +2672,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>122745772</v>
+        <v>122745994</v>
       </c>
       <c r="B22" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>669892</v>
+        <v>669879</v>
       </c>
       <c r="R22" t="n">
-        <v>7090638</v>
+        <v>7090603</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2737,12 +2737,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -2773,10 +2773,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67474868</v>
+        <v>67474646</v>
       </c>
       <c r="B23" t="n">
-        <v>92551</v>
+        <v>78647</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2784,21 +2784,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>669921</v>
+        <v>668905</v>
       </c>
       <c r="R23" t="n">
-        <v>7090665</v>
+        <v>7090825</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67474646</v>
+        <v>122745997</v>
       </c>
       <c r="B24" t="n">
-        <v>78647</v>
+        <v>78739</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2881,34 +2881,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>668905</v>
+        <v>669899</v>
       </c>
       <c r="R24" t="n">
-        <v>7090825</v>
+        <v>7090587</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2955,15 +2955,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Helene Andersson, Elin Kollberg</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3270,10 +3274,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>122745997</v>
+        <v>67474868</v>
       </c>
       <c r="B28" t="n">
-        <v>78739</v>
+        <v>92551</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3281,34 +3285,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>669899</v>
+        <v>669921</v>
       </c>
       <c r="R28" t="n">
-        <v>7090587</v>
+        <v>7090665</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3335,12 +3339,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3355,19 +3359,15 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3468,7 +3468,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67474644</v>
+        <v>67474866</v>
       </c>
       <c r="B30" t="n">
         <v>92529</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>668905</v>
+        <v>669881</v>
       </c>
       <c r="R30" t="n">
-        <v>7090679</v>
+        <v>7090646</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67474866</v>
+        <v>67474644</v>
       </c>
       <c r="B31" t="n">
         <v>92529</v>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>669881</v>
+        <v>668905</v>
       </c>
       <c r="R31" t="n">
-        <v>7090646</v>
+        <v>7090679</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>122745954</v>
+        <v>122745921</v>
       </c>
       <c r="B32" t="n">
-        <v>98361</v>
+        <v>90001</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,34 +3673,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6276</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>670067</v>
+        <v>670017</v>
       </c>
       <c r="R32" t="n">
-        <v>7090528</v>
+        <v>7090501</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3763,45 +3763,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>122743247</v>
+        <v>122745977</v>
       </c>
       <c r="B33" t="n">
-        <v>91245</v>
+        <v>90001</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6276</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Långtjärnsberget V, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>669746</v>
+        <v>669893</v>
       </c>
       <c r="R33" t="n">
-        <v>7090734</v>
+        <v>7090670</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3828,12 +3828,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jessica  Åström, Helene Andersson</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -3965,32 +3965,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>122745956</v>
+        <v>122745954</v>
       </c>
       <c r="B35" t="n">
-        <v>78647</v>
+        <v>98361</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4000,10 +4000,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>669995</v>
+        <v>670067</v>
       </c>
       <c r="R35" t="n">
-        <v>7090580</v>
+        <v>7090528</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4066,7 +4066,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>122745977</v>
+        <v>122745992</v>
       </c>
       <c r="B36" t="n">
         <v>90001</v>
@@ -4097,14 +4097,14 @@
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Långtjärnsberget V, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>669893</v>
+        <v>669881</v>
       </c>
       <c r="R36" t="n">
-        <v>7090670</v>
+        <v>7090639</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4167,45 +4167,45 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>122745921</v>
+        <v>122745931</v>
       </c>
       <c r="B37" t="n">
-        <v>90001</v>
+        <v>79598</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6276</v>
+        <v>6453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>670017</v>
+        <v>670135</v>
       </c>
       <c r="R37" t="n">
-        <v>7090501</v>
+        <v>7090325</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4268,45 +4268,45 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>122745992</v>
+        <v>122745956</v>
       </c>
       <c r="B38" t="n">
-        <v>90001</v>
+        <v>78647</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6276</v>
+        <v>353</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>669881</v>
+        <v>669995</v>
       </c>
       <c r="R38" t="n">
-        <v>7090639</v>
+        <v>7090580</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4369,10 +4369,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>122745931</v>
+        <v>122743247</v>
       </c>
       <c r="B39" t="n">
-        <v>79598</v>
+        <v>91245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4380,34 +4380,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>670135</v>
+        <v>669746</v>
       </c>
       <c r="R39" t="n">
-        <v>7090325</v>
+        <v>7090734</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4470,32 +4470,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67474862</v>
+        <v>67474652</v>
       </c>
       <c r="B40" t="n">
-        <v>78647</v>
+        <v>92535</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4505,10 +4505,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>670001</v>
+        <v>669504</v>
       </c>
       <c r="R40" t="n">
-        <v>7089924</v>
+        <v>7090118</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4567,32 +4567,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67474652</v>
+        <v>67474862</v>
       </c>
       <c r="B41" t="n">
-        <v>92535</v>
+        <v>78647</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4602,10 +4602,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>669504</v>
+        <v>670001</v>
       </c>
       <c r="R41" t="n">
-        <v>7090118</v>
+        <v>7089924</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>122745935</v>
+        <v>122746002</v>
       </c>
       <c r="B42" t="n">
-        <v>92529</v>
+        <v>92527</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4675,34 +4675,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Persbo NV, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>670140</v>
+        <v>669880</v>
       </c>
       <c r="R42" t="n">
-        <v>7090259</v>
+        <v>7090558</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -4765,10 +4765,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>122746002</v>
+        <v>122745935</v>
       </c>
       <c r="B43" t="n">
-        <v>92527</v>
+        <v>92529</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4776,34 +4776,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Persbo NV, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>669880</v>
+        <v>670140</v>
       </c>
       <c r="R43" t="n">
-        <v>7090558</v>
+        <v>7090259</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -4967,10 +4967,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>122746000</v>
+        <v>67474877</v>
       </c>
       <c r="B45" t="n">
-        <v>92152</v>
+        <v>92529</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4978,34 +4978,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>669882</v>
+        <v>669299</v>
       </c>
       <c r="R45" t="n">
-        <v>7090561</v>
+        <v>7090047</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5032,12 +5032,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5052,26 +5052,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>122745961</v>
+        <v>67474650</v>
       </c>
       <c r="B46" t="n">
-        <v>92152</v>
+        <v>78980</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5079,34 +5075,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4745</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>669966</v>
+        <v>668972</v>
       </c>
       <c r="R46" t="n">
-        <v>7090624</v>
+        <v>7090806</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5133,12 +5129,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5153,19 +5149,15 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5270,10 +5262,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67474650</v>
+        <v>122746000</v>
       </c>
       <c r="B48" t="n">
-        <v>78980</v>
+        <v>92152</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5281,34 +5273,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>4745</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>668972</v>
+        <v>669882</v>
       </c>
       <c r="R48" t="n">
-        <v>7090806</v>
+        <v>7090561</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5335,12 +5327,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5355,22 +5347,26 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr"/>
+          <t>Helene Andersson, Jessica  Åström</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67474877</v>
+        <v>122745961</v>
       </c>
       <c r="B49" t="n">
-        <v>92529</v>
+        <v>92152</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5378,34 +5374,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>669299</v>
+        <v>669966</v>
       </c>
       <c r="R49" t="n">
-        <v>7090047</v>
+        <v>7090624</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5432,12 +5428,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5452,44 +5448,48 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr"/>
+          <t>Helene Andersson, Jessica  Åström</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67474875</v>
+        <v>67474645</v>
       </c>
       <c r="B50" t="n">
-        <v>78739</v>
+        <v>92535</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>669648</v>
+        <v>668922</v>
       </c>
       <c r="R50" t="n">
-        <v>7090488</v>
+        <v>7090748</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5561,32 +5561,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67474645</v>
+        <v>67474875</v>
       </c>
       <c r="B51" t="n">
-        <v>92535</v>
+        <v>78739</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>668922</v>
+        <v>669648</v>
       </c>
       <c r="R51" t="n">
-        <v>7090748</v>
+        <v>7090488</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Jessica  Åström, Helene Andersson</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr">
@@ -6155,32 +6155,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67474865</v>
+        <v>67474867</v>
       </c>
       <c r="B57" t="n">
-        <v>90001</v>
+        <v>92527</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>669866</v>
+        <v>669891</v>
       </c>
       <c r="R57" t="n">
-        <v>7090604</v>
+        <v>7090656</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6252,32 +6252,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67474867</v>
+        <v>67474865</v>
       </c>
       <c r="B58" t="n">
-        <v>92527</v>
+        <v>90001</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6287,10 +6287,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>669891</v>
+        <v>669866</v>
       </c>
       <c r="R58" t="n">
-        <v>7090656</v>
+        <v>7090604</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6652,10 +6652,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>122745918</v>
+        <v>67474654</v>
       </c>
       <c r="B62" t="n">
-        <v>92560</v>
+        <v>91265</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6663,34 +6663,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3100</v>
+        <v>5442</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellodon fuligineoalbus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(J.C.Schmidt) Baird</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Stångsjömon, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>669897</v>
+        <v>669608</v>
       </c>
       <c r="R62" t="n">
-        <v>7090549</v>
+        <v>7090080</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6717,12 +6717,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6737,19 +6737,15 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Sören Uppsäll</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Sören Uppsäll, Per Nihlén</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6850,10 +6846,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>67474654</v>
+        <v>122745919</v>
       </c>
       <c r="B64" t="n">
-        <v>91265</v>
+        <v>92551</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6861,34 +6857,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5442</v>
+        <v>2059</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Stångsjömon, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>669608</v>
+        <v>669947</v>
       </c>
       <c r="R64" t="n">
-        <v>7090080</v>
+        <v>7090550</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6915,12 +6911,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6935,44 +6931,48 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Sören Uppsäll</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Sören Uppsäll, Per Nihlén</t>
-        </is>
-      </c>
-      <c r="AY64" t="inlineStr"/>
+          <t>Helene Andersson, Elin Kollberg</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122745919</v>
+        <v>122745960</v>
       </c>
       <c r="B65" t="n">
-        <v>92551</v>
+        <v>92535</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>669947</v>
+        <v>670120</v>
       </c>
       <c r="R65" t="n">
-        <v>7090550</v>
+        <v>7090287</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr">
@@ -7048,32 +7048,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>122745960</v>
+        <v>122745918</v>
       </c>
       <c r="B66" t="n">
-        <v>92535</v>
+        <v>92560</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon fuligineoalbus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(J.C.Schmidt) Baird</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>670120</v>
+        <v>669897</v>
       </c>
       <c r="R66" t="n">
-        <v>7090287</v>
+        <v>7090549</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
@@ -7351,10 +7351,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>122745988</v>
+        <v>122743241</v>
       </c>
       <c r="B69" t="n">
-        <v>78647</v>
+        <v>75075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7362,34 +7362,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>669915</v>
+        <v>669788</v>
       </c>
       <c r="R69" t="n">
-        <v>7090620</v>
+        <v>7090723</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7416,12 +7416,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7452,10 +7452,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>122743241</v>
+        <v>122745988</v>
       </c>
       <c r="B70" t="n">
-        <v>75075</v>
+        <v>78647</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7463,34 +7463,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>669788</v>
+        <v>669915</v>
       </c>
       <c r="R70" t="n">
-        <v>7090723</v>
+        <v>7090620</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Jessica  Åström, Helene Andersson</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr">
@@ -7650,32 +7650,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>67474647</v>
+        <v>67474871</v>
       </c>
       <c r="B72" t="n">
-        <v>78647</v>
+        <v>92547</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>353</v>
+        <v>4366</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>668937</v>
+        <v>669760</v>
       </c>
       <c r="R72" t="n">
-        <v>7090808</v>
+        <v>7090526</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7747,32 +7747,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>67474871</v>
+        <v>67474647</v>
       </c>
       <c r="B73" t="n">
-        <v>92547</v>
+        <v>78647</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4366</v>
+        <v>353</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>669760</v>
+        <v>668937</v>
       </c>
       <c r="R73" t="n">
-        <v>7090526</v>
+        <v>7090808</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122745939</v>
+        <v>122745769</v>
       </c>
       <c r="B74" t="n">
-        <v>92527</v>
+        <v>92551</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7855,34 +7855,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Djuptjärnen NV, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>670132</v>
+        <v>669933</v>
       </c>
       <c r="R74" t="n">
-        <v>7090279</v>
+        <v>7090655</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -7909,12 +7909,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr">
@@ -7945,10 +7945,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>122745940</v>
+        <v>122745939</v>
       </c>
       <c r="B75" t="n">
-        <v>92727</v>
+        <v>92527</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7956,34 +7956,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2079</v>
+        <v>4361</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Djuptjärnen NV, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>670126</v>
+        <v>670132</v>
       </c>
       <c r="R75" t="n">
-        <v>7090300</v>
+        <v>7090279</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8046,10 +8046,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>122745769</v>
+        <v>122745940</v>
       </c>
       <c r="B76" t="n">
-        <v>92551</v>
+        <v>92727</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8057,21 +8057,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>669933</v>
+        <v>670126</v>
       </c>
       <c r="R76" t="n">
-        <v>7090655</v>
+        <v>7090300</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8111,12 +8111,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
@@ -8147,45 +8147,45 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>122745771</v>
+        <v>122746100</v>
       </c>
       <c r="B77" t="n">
-        <v>91406</v>
+        <v>91241</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1503</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Åskojan SÖ, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>669915</v>
+        <v>669761</v>
       </c>
       <c r="R77" t="n">
-        <v>7090653</v>
+        <v>7090742</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8212,12 +8212,12 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
@@ -8248,45 +8248,45 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>122746100</v>
+        <v>122745771</v>
       </c>
       <c r="B78" t="n">
-        <v>91241</v>
+        <v>91406</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1108</v>
+        <v>1503</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Åskojan SÖ, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>669761</v>
+        <v>669915</v>
       </c>
       <c r="R78" t="n">
-        <v>7090742</v>
+        <v>7090653</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8313,12 +8313,12 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr">
@@ -8547,45 +8547,45 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>122743245</v>
+        <v>122745995</v>
       </c>
       <c r="B81" t="n">
-        <v>91699</v>
+        <v>78386</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1209</v>
+        <v>6437</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Gräningen Ö, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>669764</v>
+        <v>669889</v>
       </c>
       <c r="R81" t="n">
-        <v>7090736</v>
+        <v>7090578</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Jessica  Åström, Helene Andersson</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr">
@@ -8648,10 +8648,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>122745963</v>
+        <v>122745927</v>
       </c>
       <c r="B82" t="n">
-        <v>92527</v>
+        <v>79569</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8659,21 +8659,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4361</v>
+        <v>229821</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8683,10 +8683,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>669940</v>
+        <v>670109</v>
       </c>
       <c r="R82" t="n">
-        <v>7090640</v>
+        <v>7090398</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>122745964</v>
+        <v>122743245</v>
       </c>
       <c r="B83" t="n">
-        <v>92539</v>
+        <v>91699</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8760,34 +8760,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4365</v>
+        <v>1209</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Gräningen Ö, Ång</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>669924</v>
+        <v>669764</v>
       </c>
       <c r="R83" t="n">
-        <v>7090647</v>
+        <v>7090736</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -8850,45 +8850,45 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>122745995</v>
+        <v>122745964</v>
       </c>
       <c r="B84" t="n">
-        <v>78386</v>
+        <v>92539</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6437</v>
+        <v>4365</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>669889</v>
+        <v>669924</v>
       </c>
       <c r="R84" t="n">
-        <v>7090578</v>
+        <v>7090647</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -8951,10 +8951,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>122745927</v>
+        <v>122745963</v>
       </c>
       <c r="B85" t="n">
-        <v>79569</v>
+        <v>92527</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8962,21 +8962,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>670109</v>
+        <v>669940</v>
       </c>
       <c r="R85" t="n">
-        <v>7090398</v>
+        <v>7090640</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9149,45 +9149,45 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>122745920</v>
+        <v>122745993</v>
       </c>
       <c r="B87" t="n">
-        <v>105383</v>
+        <v>90001</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>224098</v>
+        <v>6276</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kalktallört</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Monotropa hypophegea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Wallr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Renskinns- V, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>669984</v>
+        <v>669877</v>
       </c>
       <c r="R87" t="n">
-        <v>7090520</v>
+        <v>7090603</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9250,45 +9250,45 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>122745993</v>
+        <v>122745920</v>
       </c>
       <c r="B88" t="n">
-        <v>90001</v>
+        <v>105383</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6276</v>
+        <v>224098</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Kalktallört</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Monotropa hypophegea</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Wallr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Renskinns- V, Ång</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>669877</v>
+        <v>669984</v>
       </c>
       <c r="R88" t="n">
-        <v>7090603</v>
+        <v>7090520</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>67474655</v>
+        <v>73354519</v>
       </c>
       <c r="B89" t="n">
-        <v>78738</v>
+        <v>79949</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9362,21 +9362,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6446</v>
+        <v>388</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9386,10 +9386,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>669647</v>
+        <v>669972</v>
       </c>
       <c r="R89" t="n">
-        <v>7090068</v>
+        <v>7089998</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9430,6 +9430,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -9448,10 +9449,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>67474653</v>
+        <v>67474655</v>
       </c>
       <c r="B90" t="n">
-        <v>78980</v>
+        <v>78738</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9459,21 +9460,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9483,10 +9484,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>669504</v>
+        <v>669647</v>
       </c>
       <c r="R90" t="n">
-        <v>7090118</v>
+        <v>7090068</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9545,10 +9546,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>73354519</v>
+        <v>67474653</v>
       </c>
       <c r="B91" t="n">
-        <v>79949</v>
+        <v>78980</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9556,21 +9557,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9580,10 +9581,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>669972</v>
+        <v>669504</v>
       </c>
       <c r="R91" t="n">
-        <v>7089998</v>
+        <v>7090118</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9624,7 +9625,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>122745983</v>
+        <v>122745984</v>
       </c>
       <c r="B93" t="n">
         <v>90001</v>
@@ -9775,14 +9775,14 @@
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Tretjärnarna V, Ång</t>
+          <t>Skalberget NV, Ång</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>669877</v>
+        <v>669871</v>
       </c>
       <c r="R93" t="n">
-        <v>7090654</v>
+        <v>7090650</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Helene Andersson, Elin Kollberg</t>
+          <t>Helene Andersson, Jessica  Åström</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr">
@@ -9845,7 +9845,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>122745984</v>
+        <v>122745983</v>
       </c>
       <c r="B94" t="n">
         <v>90001</v>
@@ -9876,14 +9876,14 @@
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Skalberget NV, Ång</t>
+          <t>Tretjärnarna V, Ång</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>669871</v>
+        <v>669877</v>
       </c>
       <c r="R94" t="n">
-        <v>7090650</v>
+        <v>7090654</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Helene Andersson, Jessica  Åström</t>
+          <t>Helene Andersson, Elin Kollberg</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
